--- a/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_AB.xlsx
+++ b/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_AB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_coal phase out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71BC8D24-75B1-4001-B3C4-27C735074B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D368FB-6C3A-49D8-B531-047C5D2EB077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{26B925EF-8CA9-4ABD-8FF3-3B8857371354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3743944C-F363-48D1-B91A-F1C889E1D7A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -111,12 +111,6 @@
   </si>
   <si>
     <t>Shoulder Load</t>
-  </si>
-  <si>
-    <t>CIMS.CAN.AB.Electricity.Utility Generation.Peak Load</t>
-  </si>
-  <si>
-    <t>Peak Load</t>
   </si>
 </sst>
 </file>
@@ -487,21 +481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027D8B9A-E0D4-40A6-89DD-A3C0D01630A4}">
-  <dimension ref="A1:X8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A82765-ABBE-4371-84EA-0BE644B5324F}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -575,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -634,7 +628,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -697,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -756,7 +750,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -816,128 +810,6 @@
       </c>
       <c r="W6">
         <f>V6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>2021</v>
-      </c>
-      <c r="N7">
-        <v>2021</v>
-      </c>
-      <c r="O7">
-        <v>2021</v>
-      </c>
-      <c r="P7">
-        <v>2021</v>
-      </c>
-      <c r="Q7">
-        <v>2021</v>
-      </c>
-      <c r="R7">
-        <v>2021</v>
-      </c>
-      <c r="S7">
-        <v>2021</v>
-      </c>
-      <c r="T7">
-        <v>2021</v>
-      </c>
-      <c r="U7">
-        <v>2021</v>
-      </c>
-      <c r="V7">
-        <v>2021</v>
-      </c>
-      <c r="W7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0.3</v>
-      </c>
-      <c r="R8">
-        <v>0.5</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <f>S8</f>
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <f>T8</f>
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <f>U8</f>
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <f>V8</f>
         <v>1</v>
       </c>
     </row>
